--- a/medicine/Psychotrope/Trois_Dames/Trois_Dames.xlsx
+++ b/medicine/Psychotrope/Trois_Dames/Trois_Dames.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Trois Dames est une brasserie artisanale suisse, se trouvant à Sainte-Croix dans le canton de Vaud. 
@@ -514,18 +526,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les classiques
-Rivale, 4.8 %, une bière rousse
+          <t>Les classiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rivale, 4.8 %, une bière rousse
 La Fraicheur, 4.8 %, une bière au froment, avec un goût d'agrumes
 Pacifique, 5.0 %, une pale ale utilisant du houblon nord-américain
-La Voisine – Ale Blonde locale, 5.5 %, une bière blonde
-Les spéciales
-IPA, 6.3 %
+La Voisine – Ale Blonde locale, 5.5 %, une bière blonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trois_Dames</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trois_Dames</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différentes bières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les spéciales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>IPA, 6.3 %
 Black Stout, 5.2 %
 India Brown Ale, 6.0 %, une bière brun-noir
-Bise Noire, 7.2 %, une bière noire
-Les limitées
-Espresso Stout, 7.2 %
+Bise Noire, 7.2 %, une bière noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trois_Dames</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trois_Dames</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les différentes bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les limitées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espresso Stout, 7.2 %
 Saison Houblon
 </t>
         </is>
